--- a/table/lm/abu_env_lm.xlsx
+++ b/table/lm/abu_env_lm.xlsx
@@ -392,16 +392,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.914735043151314</v>
+        <v>3.9147</v>
       </c>
       <c r="C2">
-        <v>0.01492604015231359</v>
+        <v>0.0149</v>
       </c>
       <c r="D2">
-        <v>262.2755267440786</v>
+        <v>262.2755</v>
       </c>
       <c r="E2">
-        <v>1.592335704181474e-044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.04078453861900954</v>
+        <v>0.0408</v>
       </c>
       <c r="C3">
-        <v>0.03069453027688725</v>
+        <v>0.0307</v>
       </c>
       <c r="D3">
-        <v>1.328723334454152</v>
+        <v>1.3287</v>
       </c>
       <c r="E3">
-        <v>0.1959406012501554</v>
+        <v>0.1959</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.01271436049891395</v>
+        <v>-0.0127</v>
       </c>
       <c r="C4">
-        <v>0.01817320700792683</v>
+        <v>0.0182</v>
       </c>
       <c r="D4">
-        <v>-0.6996211782195719</v>
+        <v>-0.6996</v>
       </c>
       <c r="E4">
-        <v>0.4906230802784608</v>
+        <v>0.4906</v>
       </c>
     </row>
     <row r="5">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.05233857241304825</v>
+        <v>-0.0523</v>
       </c>
       <c r="C5">
-        <v>0.02472689532135211</v>
+        <v>0.0247</v>
       </c>
       <c r="D5">
-        <v>-2.116665749292551</v>
+        <v>-2.1167</v>
       </c>
       <c r="E5">
-        <v>0.04441574872361027</v>
+        <v>0.0444</v>
       </c>
     </row>
     <row r="6">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.121317377369755</v>
+        <v>0.1213</v>
       </c>
       <c r="C6">
-        <v>0.08813051161459634</v>
+        <v>0.0881</v>
       </c>
       <c r="D6">
-        <v>1.376564996017363</v>
+        <v>1.3766</v>
       </c>
       <c r="E6">
-        <v>0.1808513797694811</v>
+        <v>0.1809</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.05226818578917045</v>
+        <v>0.0523</v>
       </c>
       <c r="C7">
-        <v>0.04340516606833347</v>
+        <v>0.0434</v>
       </c>
       <c r="D7">
-        <v>1.20419273841468</v>
+        <v>1.2042</v>
       </c>
       <c r="E7">
-        <v>0.2397927120842858</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="8">
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.05282341978448585</v>
+        <v>-0.0528</v>
       </c>
       <c r="C8">
-        <v>0.0446207625503949</v>
+        <v>0.0446</v>
       </c>
       <c r="D8">
-        <v>-1.183830503228779</v>
+        <v>-1.1838</v>
       </c>
       <c r="E8">
-        <v>0.2476145865958229</v>
+        <v>0.2476</v>
       </c>
     </row>
     <row r="9">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.2431018023220827</v>
+        <v>-0.2431</v>
       </c>
       <c r="C9">
-        <v>0.07688554480906075</v>
+        <v>0.0769</v>
       </c>
       <c r="D9">
-        <v>-3.16186615996293</v>
+        <v>-3.1619</v>
       </c>
       <c r="E9">
-        <v>0.004079318825567842</v>
+        <v>0.0041</v>
       </c>
     </row>
   </sheetData>

--- a/table/lm/abu_env_lm.xlsx
+++ b/table/lm/abu_env_lm.xlsx
@@ -579,10 +579,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.8209852690839786</v>
+        <v>0.8209852690839785</v>
       </c>
       <c r="B2">
-        <v>0.7708611444274927</v>
+        <v>0.7708611444274924</v>
       </c>
       <c r="C2">
         <v>16.37904451619674</v>
@@ -591,7 +591,7 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>6.703662161363773e-008</v>
+        <v>6.703662161363771e-08</v>
       </c>
     </row>
   </sheetData>
